--- a/notes/atomization_test.xlsx
+++ b/notes/atomization_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">words</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t xml:space="preserve">http://id.loc.gov/authorities/subjects/sh2012003393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spacebefore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://id.loc.gov/authorities/subjects/sh2012003393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spaceafter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://id.loc.gov/authorities/subjects/sh2012003393 </t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,6 +183,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -216,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,6 +250,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,9 +436,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://id.loc.gov/authorities/subjects/sh85092415|http://id.loc.gov/authorities/subjects/sh85124500|http://id.loc.gov/authorities/subjects/sh85081118"/>
+    <hyperlink ref="C5" r:id="rId2" display=" http://id.loc.gov/authorities/subjects/sh2012003393"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://id.loc.gov/authorities/subjects/sh2012003393 "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
